--- a/spliced/struggle/2023-04-06_18-15-34/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-15-34/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4163046777248382</v>
+        <v>-0.0041233403608202</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.031584978103638</v>
+        <v>0.0484110713005065</v>
       </c>
       <c r="C2" t="n">
-        <v>1.399950385093689</v>
+        <v>-0.0001527163112768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.085062988102436</v>
+        <v>-0.0736092627048492</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.666898488998413</v>
+        <v>-0.0381790772080421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3200933933258056</v>
+        <v>0.0797179117798805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2128865420818328</v>
+        <v>-1.18019163608551</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1716531366109848</v>
+        <v>-4.37715482711792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4915938079357147</v>
+        <v>0.3266601860523224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4960225820541382</v>
+        <v>0.4163046777248382</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8994990587234497</v>
+        <v>-2.031584978103638</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5232060551643372</v>
+        <v>1.399950385093689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.297935962677002</v>
+        <v>-0.085062988102436</v>
       </c>
       <c r="B6" t="n">
-        <v>6.144540786743164</v>
+        <v>-1.666898488998413</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5485569834709167</v>
+        <v>0.3200933933258056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.395077109336853</v>
+        <v>0.2128865420818328</v>
       </c>
       <c r="B7" t="n">
-        <v>5.482057571411133</v>
+        <v>-0.1716531366109848</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6198754906654358</v>
+        <v>0.4915938079357147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6418666839599609</v>
+        <v>0.4960225820541382</v>
       </c>
       <c r="B8" t="n">
-        <v>1.02396285533905</v>
+        <v>0.8994990587234497</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6579018831253052</v>
+        <v>-0.5232060551643372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1765400618314743</v>
+        <v>1.297935962677002</v>
       </c>
       <c r="B9" t="n">
-        <v>1.450194120407104</v>
+        <v>6.144540786743164</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3078760802745819</v>
+        <v>0.5485569834709167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0943786799907684</v>
+        <v>0.395077109336853</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3147483170032501</v>
+        <v>5.482057571411133</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7883216142654419</v>
+        <v>-0.6198754906654358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4792237877845764</v>
+        <v>0.6418666839599609</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.076748371124268</v>
+        <v>1.02396285533905</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.524872422218323</v>
+        <v>0.6579018831253052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.015118914656341</v>
+        <v>0.1765400618314743</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.905566930770874</v>
+        <v>1.450194120407104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6056728959083557</v>
+        <v>-0.3078760802745819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.9416487812995912</v>
+        <v>-0.0943786799907684</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.088382005691528</v>
+        <v>-0.3147483170032501</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4016439020633697</v>
+        <v>-0.7883216142654419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.3442225754261017</v>
+        <v>0.4792237877845764</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.283719778060913</v>
+        <v>-5.076748371124268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2553416788578033</v>
+        <v>-1.524872422218323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1937969923019409</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0872010141611099</v>
+        <v>-3.905566930770874</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3181080818176269</v>
+        <v>0.6056728959083557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7287622094154358</v>
+        <v>-0.9416487812995912</v>
       </c>
       <c r="B16" t="n">
-        <v>4.673271656036377</v>
+        <v>-3.088382005691528</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6183483600616455</v>
+        <v>-0.4016439020633697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5477933883666992</v>
+        <v>-0.3442225754261017</v>
       </c>
       <c r="B17" t="n">
-        <v>5.67539644241333</v>
+        <v>-2.283719778060913</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.208291411399841</v>
+        <v>0.2553416788578033</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9772316813468932</v>
+        <v>-0.1937969923019409</v>
       </c>
       <c r="B18" t="n">
-        <v>1.330769896507263</v>
+        <v>-0.0872010141611099</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8104654550552368</v>
+        <v>0.3181080818176269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8136724829673767</v>
+        <v>0.7287622094154358</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1959350258111953</v>
+        <v>4.673271656036377</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.294437050819397</v>
+        <v>-0.6183483600616455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1049161031842231</v>
+        <v>0.5477933883666992</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2081523388624191</v>
+        <v>5.67539644241333</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4677700698375702</v>
+        <v>-1.208291411399841</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.9772316813468932</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.330769896507263</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8104654550552368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.8136724829673767</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1959350258111953</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.294437050819397</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1049161031842231</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2081523388624191</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.4677700698375702</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-0.6108652353286743</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-0.9943358898162842</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>0.4877758920192718</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.5545129179954529</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.7066183686256409</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1945605874061584</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0233655963093042</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0335975885391235</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5940664410591125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1398881375789642</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0471893399953842</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.531147301197052</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0551305897533893</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0639881342649459</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.093156948685646</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1805106848478317</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0415388382971286</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1635591685771942</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1348485052585601</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1539380401372909</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1916589736938476</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0897971913218498</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1873829066753387</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0282525178045034</v>
       </c>
     </row>
   </sheetData>
